--- a/tokyo-nova/checklist.xlsx
+++ b/tokyo-nova/checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/tokyo-nova/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57009111-7E31-4F43-877A-34CCC60DA4E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B566D9A-F2AC-984B-9F00-327E8324F33C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{22EAF693-7861-A34E-A783-34EF7D154F64}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{22EAF693-7861-A34E-A783-34EF7D154F64}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>year</t>
   </si>
@@ -123,6 +123,21 @@
   </si>
   <si>
     <t>tokyo_nova_replay_2nd_ed.jpg</t>
+  </si>
+  <si>
+    <t>product_type</t>
+  </si>
+  <si>
+    <t>box set</t>
+  </si>
+  <si>
+    <t>replay</t>
+  </si>
+  <si>
+    <t>supplement</t>
+  </si>
+  <si>
+    <t>scenario</t>
   </si>
 </sst>
 </file>
@@ -483,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4679E55C-30BE-044D-B3AF-8434FCFD3724}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -494,10 +509,10 @@
     <col min="2" max="2" width="57.1640625" customWidth="1"/>
     <col min="3" max="3" width="48.33203125" customWidth="1"/>
     <col min="4" max="4" width="21.6640625" customWidth="1"/>
-    <col min="5" max="5" width="22.1640625" customWidth="1"/>
+    <col min="5" max="5" width="29.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -513,8 +528,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1993</v>
       </c>
@@ -530,8 +548,11 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1994</v>
       </c>
@@ -547,8 +568,11 @@
       <c r="E3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1995</v>
       </c>
@@ -564,8 +588,11 @@
       <c r="E4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1995</v>
       </c>
@@ -581,8 +608,11 @@
       <c r="E5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1996</v>
       </c>
@@ -598,8 +628,11 @@
       <c r="E6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1997</v>
       </c>
@@ -615,8 +648,11 @@
       <c r="E7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1997</v>
       </c>
@@ -631,6 +667,9 @@
       </c>
       <c r="E8" t="s">
         <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/tokyo-nova/checklist.xlsx
+++ b/tokyo-nova/checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/tokyo-nova/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B566D9A-F2AC-984B-9F00-327E8324F33C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC5B973-0AB7-E043-B54D-CBF238805CA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{22EAF693-7861-A34E-A783-34EF7D154F64}"/>
   </bookViews>
@@ -119,9 +119,6 @@
     <t>猟犬たちの午後―トーキョーNOVA The 2nd Editionリプレイ</t>
   </si>
   <si>
-    <t>Hounds Afternoon: Toky Nova The 2nd Edition Replay</t>
-  </si>
-  <si>
     <t>tokyo_nova_replay_2nd_ed.jpg</t>
   </si>
   <si>
@@ -138,6 +135,9 @@
   </si>
   <si>
     <t>scenario</t>
+  </si>
+  <si>
+    <t>Hounds Afternoon: Tokyo Nova The 2nd Edition Replay</t>
   </si>
 </sst>
 </file>
@@ -501,7 +501,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -529,7 +529,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -549,7 +549,7 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -569,7 +569,7 @@
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -589,7 +589,7 @@
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -600,16 +600,16 @@
         <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -629,7 +629,7 @@
         <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -649,7 +649,7 @@
         <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -669,7 +669,7 @@
         <v>24</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/tokyo-nova/checklist.xlsx
+++ b/tokyo-nova/checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/tokyo-nova/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC5B973-0AB7-E043-B54D-CBF238805CA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0671C62E-36B2-5046-9C49-D51C9EE93E76}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{22EAF693-7861-A34E-A783-34EF7D154F64}"/>
   </bookViews>

--- a/tokyo-nova/checklist.xlsx
+++ b/tokyo-nova/checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/tokyo-nova/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0671C62E-36B2-5046-9C49-D51C9EE93E76}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{284B90FA-ECC4-E640-B8DD-F5BAF35CDDB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{22EAF693-7861-A34E-A783-34EF7D154F64}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
   <si>
     <t>year</t>
   </si>
@@ -138,6 +138,15 @@
   </si>
   <si>
     <t>Hounds Afternoon: Tokyo Nova The 2nd Edition Replay</t>
+  </si>
+  <si>
+    <t>tokyo_nova_handbook.jpg</t>
+  </si>
+  <si>
+    <t>トーキョーN◎VA The 2nd Edition ハンドブック</t>
+  </si>
+  <si>
+    <t>Tokyo Nova: The 2nd Edition: Handbook</t>
   </si>
 </sst>
 </file>
@@ -498,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4679E55C-30BE-044D-B3AF-8434FCFD3724}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -617,16 +626,16 @@
         <v>1996</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
         <v>32</v>
@@ -634,19 +643,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
         <v>32</v>
@@ -657,18 +666,38 @@
         <v>1997</v>
       </c>
       <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1997</v>
+      </c>
+      <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>26</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>24</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F9" t="s">
         <v>33</v>
       </c>
     </row>

--- a/tokyo-nova/checklist.xlsx
+++ b/tokyo-nova/checklist.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/tokyo-nova/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{284B90FA-ECC4-E640-B8DD-F5BAF35CDDB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D9490FC-EE9B-A442-A199-B1268A504C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{22EAF693-7861-A34E-A783-34EF7D154F64}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="checklist" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
   <si>
     <t>year</t>
   </si>
@@ -147,6 +147,45 @@
   </si>
   <si>
     <t>Tokyo Nova: The 2nd Edition: Handbook</t>
+  </si>
+  <si>
+    <t>トーキョーN◎VA The Revolution REVISED</t>
+  </si>
+  <si>
+    <t>Tokyo Nova The Revolution REVISED</t>
+  </si>
+  <si>
+    <t>revolution_revised.jpg</t>
+  </si>
+  <si>
+    <t>rulebook</t>
+  </si>
+  <si>
+    <t>トーキョーN◎VA The Revolution</t>
+  </si>
+  <si>
+    <t>Tokyo Nova The Revolution</t>
+  </si>
+  <si>
+    <t>revolution.jpg</t>
+  </si>
+  <si>
+    <t>total_eclipse.jpg</t>
+  </si>
+  <si>
+    <t>トータルエクリプス</t>
+  </si>
+  <si>
+    <t>Total Eclipse</t>
+  </si>
+  <si>
+    <t>grand_cross.jpg</t>
+  </si>
+  <si>
+    <t>グランド×クロス</t>
+  </si>
+  <si>
+    <t>Grand X</t>
   </si>
 </sst>
 </file>
@@ -507,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4679E55C-30BE-044D-B3AF-8434FCFD3724}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -701,7 +740,90 @@
         <v>33</v>
       </c>
     </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1998</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1998</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2002</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2003</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F13">
+    <sortCondition ref="A2:A13"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/tokyo-nova/checklist.xlsx
+++ b/tokyo-nova/checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/tokyo-nova/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D9490FC-EE9B-A442-A199-B1268A504C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4773E42-420B-AB44-8BDB-448987406A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{22EAF693-7861-A34E-A783-34EF7D154F64}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
   <si>
     <t>year</t>
   </si>
@@ -132,9 +132,6 @@
   </si>
   <si>
     <t>supplement</t>
-  </si>
-  <si>
-    <t>scenario</t>
   </si>
   <si>
     <t>Hounds Afternoon: Tokyo Nova The 2nd Edition Replay</t>
@@ -549,7 +546,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -648,7 +645,7 @@
         <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -665,16 +662,16 @@
         <v>1996</v>
       </c>
       <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
         <v>36</v>
-      </c>
-      <c r="C6" t="s">
-        <v>37</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
         <v>32</v>
@@ -737,7 +734,7 @@
         <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -745,19 +742,19 @@
         <v>1998</v>
       </c>
       <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
         <v>42</v>
-      </c>
-      <c r="C10" t="s">
-        <v>43</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -765,16 +762,16 @@
         <v>1998</v>
       </c>
       <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" t="s">
         <v>46</v>
-      </c>
-      <c r="C11" t="s">
-        <v>47</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
         <v>31</v>
@@ -785,19 +782,19 @@
         <v>2002</v>
       </c>
       <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
         <v>38</v>
-      </c>
-      <c r="C12" t="s">
-        <v>39</v>
       </c>
       <c r="D12" t="s">
         <v>23</v>
       </c>
       <c r="E12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" t="s">
         <v>40</v>
-      </c>
-      <c r="F12" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -805,16 +802,16 @@
         <v>2003</v>
       </c>
       <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
         <v>49</v>
-      </c>
-      <c r="C13" t="s">
-        <v>50</v>
       </c>
       <c r="D13" t="s">
         <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F13" t="s">
         <v>32</v>

--- a/tokyo-nova/checklist.xlsx
+++ b/tokyo-nova/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/tokyo-nova/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4773E42-420B-AB44-8BDB-448987406A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B12CE4-949D-9A41-A4C0-4781CB27CFBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{22EAF693-7861-A34E-A783-34EF7D154F64}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="148">
   <si>
     <t>year</t>
   </si>
@@ -183,13 +183,307 @@
   </si>
   <si>
     <t>Grand X</t>
+  </si>
+  <si>
+    <t>ナイフ・エッジ</t>
+  </si>
+  <si>
+    <t>Knife Edge</t>
+  </si>
+  <si>
+    <t>scenario</t>
+  </si>
+  <si>
+    <t>トーキョーN◎VA The Revolution スーパー・シナリオ・サポート Vol. 1</t>
+  </si>
+  <si>
+    <t>トーキョーN◎VA The Revolution スーパー・シナリオ・サポート Vol. 2</t>
+  </si>
+  <si>
+    <t>トーキョーN◎VA The Revolution スーパー・シナリオ・サポート Vol. 3</t>
+  </si>
+  <si>
+    <t>トーキョーN◎VA The Revolution スーパー・シナリオ・サポート Vol. 4</t>
+  </si>
+  <si>
+    <t>トーキョーN◎VA The Revolution スーパー・シナリオ・サポート Vol. 5</t>
+  </si>
+  <si>
+    <t>トーキョーN◎VA The Revolution スーパー・シナリオ・サポート Vol. 6</t>
+  </si>
+  <si>
+    <t>トーキョーN◎VA The Revolution スーパー・シナリオ・サポート Vol. 7</t>
+  </si>
+  <si>
+    <t>トーキョーN◎VA The Revolution スーパー・シナリオ・サポート Vol. 8</t>
+  </si>
+  <si>
+    <t>トーキョーN◎VA The Revolution スーパー・シナリオ・サポート Vol. 9</t>
+  </si>
+  <si>
+    <t>トーキョーN◎VA The Revolution スーパー・シナリオ・サポート Vol. 10</t>
+  </si>
+  <si>
+    <t>Tokyo Nova The Revolution: Super Scenario Support Vol. 1</t>
+  </si>
+  <si>
+    <t>Tokyo Nova The Revolution: Super Scenario Support Vol. 2</t>
+  </si>
+  <si>
+    <t>Tokyo Nova The Revolution: Super Scenario Support Vol. 3</t>
+  </si>
+  <si>
+    <t>Tokyo Nova The Revolution: Super Scenario Support Vol. 4</t>
+  </si>
+  <si>
+    <t>Tokyo Nova The Revolution: Super Scenario Support Vol. 5</t>
+  </si>
+  <si>
+    <t>Tokyo Nova The Revolution: Super Scenario Support Vol. 6</t>
+  </si>
+  <si>
+    <t>Tokyo Nova The Revolution: Super Scenario Support Vol. 7</t>
+  </si>
+  <si>
+    <t>Tokyo Nova The Revolution: Super Scenario Support Vol. 8</t>
+  </si>
+  <si>
+    <t>Tokyo Nova The Revolution: Super Scenario Support Vol. 9</t>
+  </si>
+  <si>
+    <t>Tokyo Nova The Revolution: Super Scenario Support Vol. 10</t>
+  </si>
+  <si>
+    <t>トーキョーN◎VA The Revolution REVISED スーパー・シナリオ・サポート Vol. 11</t>
+  </si>
+  <si>
+    <t>トーキョーN◎VA The Revolution REVISED スーパー・シナリオ・サポート Vol. 12</t>
+  </si>
+  <si>
+    <t>トーキョーN◎VA The Revolution REVISED スーパー・シナリオ・サポート Vol. 13</t>
+  </si>
+  <si>
+    <t>トーキョーN◎VA The Revolution REVISED スーパー・シナリオ・サポート Vol. 14</t>
+  </si>
+  <si>
+    <t>トーキョーN◎VA The Revolution REVISED スーパー・シナリオ・サポート Vol. 15</t>
+  </si>
+  <si>
+    <t>トーキョーN◎VA The Revolution REVISED スーパー・シナリオ・サポート Vol. 16</t>
+  </si>
+  <si>
+    <t>トーキョーN◎VA The Revolution REVISED スーパー・シナリオ・サポート Vol. 17</t>
+  </si>
+  <si>
+    <t>Tokyo Nova The Revolution REVISED: Super Scenario Support Vol. 11</t>
+  </si>
+  <si>
+    <t>Tokyo Nova The Revolution REVISED: Super Scenario Support Vol. 12</t>
+  </si>
+  <si>
+    <t>Tokyo Nova The Revolution REVISED: Super Scenario Support Vol. 13</t>
+  </si>
+  <si>
+    <t>Tokyo Nova The Revolution REVISED: Super Scenario Support Vol. 14</t>
+  </si>
+  <si>
+    <t>Tokyo Nova The Revolution REVISED: Super Scenario Support Vol. 15</t>
+  </si>
+  <si>
+    <t>Tokyo Nova The Revolution REVISED: Super Scenario Support Vol. 16</t>
+  </si>
+  <si>
+    <t>Tokyo Nova The Revolution REVISED: Super Scenario Support Vol. 17</t>
+  </si>
+  <si>
+    <t>sssrev01.jpg</t>
+  </si>
+  <si>
+    <t>sssrev02.jpg</t>
+  </si>
+  <si>
+    <t>sssrev03.jpg</t>
+  </si>
+  <si>
+    <t>sssrev04.jpg</t>
+  </si>
+  <si>
+    <t>sssrev05.jpg</t>
+  </si>
+  <si>
+    <t>sssrev06.jpg</t>
+  </si>
+  <si>
+    <t>sssrev07.jpg</t>
+  </si>
+  <si>
+    <t>sssrev08.jpg</t>
+  </si>
+  <si>
+    <t>sssrev09.jpg</t>
+  </si>
+  <si>
+    <t>sssrev10.jpg</t>
+  </si>
+  <si>
+    <t>sssrev11.jpg</t>
+  </si>
+  <si>
+    <t>sssrev12.jpg</t>
+  </si>
+  <si>
+    <t>sssrev13.jpg</t>
+  </si>
+  <si>
+    <t>sssrev14.jpg</t>
+  </si>
+  <si>
+    <t>sssrev15.jpg</t>
+  </si>
+  <si>
+    <t>sssrev16.jpg</t>
+  </si>
+  <si>
+    <t>sssrev17.jpg</t>
+  </si>
+  <si>
+    <t>tokyo_nova_detonation.jpg</t>
+  </si>
+  <si>
+    <t>トーキョーNOVA The Detonation</t>
+  </si>
+  <si>
+    <t>Tokyo Nova The Detonation</t>
+  </si>
+  <si>
+    <t>Enterbrain</t>
+  </si>
+  <si>
+    <t>grand_x_detonation.jpg</t>
+  </si>
+  <si>
+    <t>Grand Cross</t>
+  </si>
+  <si>
+    <t>stray_light.jpg</t>
+  </si>
+  <si>
+    <t>Stray Light</t>
+  </si>
+  <si>
+    <t>chronicle.jpg</t>
+  </si>
+  <si>
+    <t>クロニクル</t>
+  </si>
+  <si>
+    <t>Chronicle</t>
+  </si>
+  <si>
+    <t>murder_inc.jpg</t>
+  </si>
+  <si>
+    <t>マーダーインク</t>
+  </si>
+  <si>
+    <t>Murder Inc.</t>
+  </si>
+  <si>
+    <t>ナイトウォッチ</t>
+  </si>
+  <si>
+    <t>Night Watch</t>
+  </si>
+  <si>
+    <t>night_watch.jpg</t>
+  </si>
+  <si>
+    <t>ワールドオーダー</t>
+  </si>
+  <si>
+    <t>World Order</t>
+  </si>
+  <si>
+    <t>world_order.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アウターエッジ </t>
+  </si>
+  <si>
+    <t>Outer Forge</t>
+  </si>
+  <si>
+    <t>outer_forge.jpg</t>
+  </si>
+  <si>
+    <t>カウンターグロウ</t>
+  </si>
+  <si>
+    <t>Counterglow</t>
+  </si>
+  <si>
+    <t>counterglow.jpg</t>
+  </si>
+  <si>
+    <t>ビューティフルデイ</t>
+  </si>
+  <si>
+    <t>Beautiful Day</t>
+  </si>
+  <si>
+    <t>beautiful_day.jpg</t>
+  </si>
+  <si>
+    <t>ヴァニティ・エンジェル</t>
+  </si>
+  <si>
+    <t>Vanity Angel</t>
+  </si>
+  <si>
+    <t>vanity_angel.jpg</t>
+  </si>
+  <si>
+    <t>counterglow_replay.jpg</t>
+  </si>
+  <si>
+    <t>トーキョーN◎VA The Detonation スーパー・シナリオ・サポート Vol. 1</t>
+  </si>
+  <si>
+    <t>トーキョーN◎VA The Detonation スーパー・シナリオ・サポート Vol. 2</t>
+  </si>
+  <si>
+    <t>トーキョーN◎VA The Detonation スーパー・シナリオ・サポート Vol. 3</t>
+  </si>
+  <si>
+    <t>トーキョーN◎VA The Detonation スーパー・シナリオ・サポート Vol. 4</t>
+  </si>
+  <si>
+    <t>トーキョーN◎VA The Detonation スーパー・シナリオ・サポート Vol. 5</t>
+  </si>
+  <si>
+    <t>sssdet4.jpg</t>
+  </si>
+  <si>
+    <t>Tokyo Nova The Detonation Super Scenario Support Vol. 1</t>
+  </si>
+  <si>
+    <t>Tokyo Nova The Detonation Super Scenario Support Vol. 2</t>
+  </si>
+  <si>
+    <t>Tokyo Nova The Detonation Super Scenario Support Vol. 3</t>
+  </si>
+  <si>
+    <t>Tokyo Nova The Detonation Super Scenario Support Vol. 4</t>
+  </si>
+  <si>
+    <t>Tokyo Nova The Detonation Super Scenario Support Vol. 5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -205,6 +499,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -214,9 +514,18 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -226,9 +535,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,16 +853,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4679E55C-30BE-044D-B3AF-8434FCFD3724}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44:F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="57.1640625" customWidth="1"/>
-    <col min="3" max="3" width="48.33203125" customWidth="1"/>
+    <col min="2" max="2" width="76.1640625" customWidth="1"/>
+    <col min="3" max="3" width="59.5" customWidth="1"/>
     <col min="4" max="4" width="21.6640625" customWidth="1"/>
     <col min="5" max="5" width="29.33203125" customWidth="1"/>
   </cols>
@@ -753,7 +1063,7 @@
       <c r="E10" t="s">
         <v>43</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="2" t="s">
         <v>40</v>
       </c>
     </row>
@@ -779,48 +1089,668 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
         <v>23</v>
-      </c>
-      <c r="E12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
+        <v>2002</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>2003</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>48</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>49</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" t="s">
         <v>47</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F14" t="s">
         <v>32</v>
       </c>
     </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2000</v>
+      </c>
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2001</v>
+      </c>
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2001</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2001</v>
+      </c>
+      <c r="B21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2001</v>
+      </c>
+      <c r="B22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" t="s">
+        <v>98</v>
+      </c>
+      <c r="F26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" t="s">
+        <v>99</v>
+      </c>
+      <c r="F27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" t="s">
+        <v>100</v>
+      </c>
+      <c r="F28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" t="s">
+        <v>101</v>
+      </c>
+      <c r="F29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2003</v>
+      </c>
+      <c r="B30" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" t="s">
+        <v>102</v>
+      </c>
+      <c r="F30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" t="s">
+        <v>103</v>
+      </c>
+      <c r="F31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2003</v>
+      </c>
+      <c r="B32" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" t="s">
+        <v>106</v>
+      </c>
+      <c r="D32" t="s">
+        <v>107</v>
+      </c>
+      <c r="E32" t="s">
+        <v>104</v>
+      </c>
+      <c r="F32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>2003</v>
+      </c>
+      <c r="B33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" t="s">
+        <v>108</v>
+      </c>
+      <c r="F33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2004</v>
+      </c>
+      <c r="B34" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" t="s">
+        <v>111</v>
+      </c>
+      <c r="D34" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" t="s">
+        <v>110</v>
+      </c>
+      <c r="F34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>2006</v>
+      </c>
+      <c r="B35" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35" t="s">
+        <v>107</v>
+      </c>
+      <c r="E35" t="s">
+        <v>112</v>
+      </c>
+      <c r="F35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>2008</v>
+      </c>
+      <c r="B36" t="s">
+        <v>116</v>
+      </c>
+      <c r="C36" t="s">
+        <v>117</v>
+      </c>
+      <c r="D36" t="s">
+        <v>107</v>
+      </c>
+      <c r="E36" t="s">
+        <v>115</v>
+      </c>
+      <c r="F36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>2009</v>
+      </c>
+      <c r="B37" t="s">
+        <v>118</v>
+      </c>
+      <c r="C37" t="s">
+        <v>119</v>
+      </c>
+      <c r="D37" t="s">
+        <v>107</v>
+      </c>
+      <c r="E37" t="s">
+        <v>120</v>
+      </c>
+      <c r="F37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>2010</v>
+      </c>
+      <c r="B38" t="s">
+        <v>121</v>
+      </c>
+      <c r="C38" t="s">
+        <v>122</v>
+      </c>
+      <c r="D38" t="s">
+        <v>107</v>
+      </c>
+      <c r="E38" t="s">
+        <v>123</v>
+      </c>
+      <c r="F38" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>2011</v>
+      </c>
+      <c r="B39" t="s">
+        <v>124</v>
+      </c>
+      <c r="C39" t="s">
+        <v>125</v>
+      </c>
+      <c r="D39" t="s">
+        <v>107</v>
+      </c>
+      <c r="E39" t="s">
+        <v>126</v>
+      </c>
+      <c r="F39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>2009</v>
+      </c>
+      <c r="B40" t="s">
+        <v>127</v>
+      </c>
+      <c r="C40" t="s">
+        <v>128</v>
+      </c>
+      <c r="D40" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" t="s">
+        <v>129</v>
+      </c>
+      <c r="F40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>2008</v>
+      </c>
+      <c r="B41" t="s">
+        <v>130</v>
+      </c>
+      <c r="C41" t="s">
+        <v>131</v>
+      </c>
+      <c r="D41" t="s">
+        <v>107</v>
+      </c>
+      <c r="E41" t="s">
+        <v>132</v>
+      </c>
+      <c r="F41" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>2010</v>
+      </c>
+      <c r="B42" t="s">
+        <v>133</v>
+      </c>
+      <c r="C42" t="s">
+        <v>134</v>
+      </c>
+      <c r="D42" t="s">
+        <v>107</v>
+      </c>
+      <c r="E42" t="s">
+        <v>135</v>
+      </c>
+      <c r="F42" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>2011</v>
+      </c>
+      <c r="B43" t="s">
+        <v>127</v>
+      </c>
+      <c r="C43" t="s">
+        <v>128</v>
+      </c>
+      <c r="D43" t="s">
+        <v>107</v>
+      </c>
+      <c r="E43" t="s">
+        <v>136</v>
+      </c>
+      <c r="F43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>137</v>
+      </c>
+      <c r="C44" t="s">
+        <v>143</v>
+      </c>
+      <c r="F44" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>138</v>
+      </c>
+      <c r="C45" t="s">
+        <v>144</v>
+      </c>
+      <c r="F45" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>139</v>
+      </c>
+      <c r="C46" t="s">
+        <v>145</v>
+      </c>
+      <c r="F46" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>140</v>
+      </c>
+      <c r="C47" t="s">
+        <v>146</v>
+      </c>
+      <c r="E47" t="s">
+        <v>142</v>
+      </c>
+      <c r="F47" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>141</v>
+      </c>
+      <c r="C48" t="s">
+        <v>147</v>
+      </c>
+      <c r="F48" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F13">
-    <sortCondition ref="A2:A13"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F14">
+    <sortCondition ref="A2:A14"/>
   </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/tokyo-nova/checklist.xlsx
+++ b/tokyo-nova/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/tokyo-nova/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B12CE4-949D-9A41-A4C0-4781CB27CFBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{333E344E-8EA8-9840-88D6-E0A15DD0F349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{22EAF693-7861-A34E-A783-34EF7D154F64}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="149">
   <si>
     <t>year</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>Knife Edge</t>
+  </si>
+  <si>
+    <t>knife_edge.jpg</t>
   </si>
   <si>
     <t>scenario</t>
@@ -855,8 +858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4679E55C-30BE-044D-B3AF-8434FCFD3724}">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44:F48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1100,6 +1103,9 @@
       <c r="D12" t="s">
         <v>23</v>
       </c>
+      <c r="E12" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -1143,36 +1149,36 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D16" t="s">
         <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1180,36 +1186,36 @@
         <v>2000</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
       </c>
       <c r="E17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D18" t="s">
         <v>23</v>
       </c>
       <c r="E18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1217,19 +1223,19 @@
         <v>2001</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D19" t="s">
         <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1237,19 +1243,19 @@
         <v>2001</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
       </c>
       <c r="E20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1257,19 +1263,19 @@
         <v>2001</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D21" t="s">
         <v>23</v>
       </c>
       <c r="E21" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1277,138 +1283,138 @@
         <v>2001</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D22" t="s">
         <v>23</v>
       </c>
       <c r="E22" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
       </c>
       <c r="E23" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" t="s">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D25" t="s">
         <v>23</v>
       </c>
       <c r="E25" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" t="s">
         <v>23</v>
       </c>
       <c r="E26" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" t="s">
         <v>23</v>
       </c>
       <c r="E27" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D28" t="s">
         <v>23</v>
       </c>
       <c r="E28" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C29" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
       </c>
       <c r="E29" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1416,36 +1422,36 @@
         <v>2003</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C30" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D30" t="s">
         <v>23</v>
       </c>
       <c r="E30" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C31" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D31" t="s">
         <v>23</v>
       </c>
       <c r="E31" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -1453,16 +1459,16 @@
         <v>2003</v>
       </c>
       <c r="B32" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" t="s">
+        <v>108</v>
+      </c>
+      <c r="E32" t="s">
         <v>105</v>
-      </c>
-      <c r="C32" t="s">
-        <v>106</v>
-      </c>
-      <c r="D32" t="s">
-        <v>107</v>
-      </c>
-      <c r="E32" t="s">
-        <v>104</v>
       </c>
       <c r="F32" t="s">
         <v>40</v>
@@ -1476,13 +1482,13 @@
         <v>48</v>
       </c>
       <c r="C33" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" t="s">
         <v>109</v>
-      </c>
-      <c r="D33" t="s">
-        <v>23</v>
-      </c>
-      <c r="E33" t="s">
-        <v>108</v>
       </c>
       <c r="F33" t="s">
         <v>32</v>
@@ -1493,16 +1499,16 @@
         <v>2004</v>
       </c>
       <c r="B34" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" t="s">
         <v>111</v>
-      </c>
-      <c r="C34" t="s">
-        <v>111</v>
-      </c>
-      <c r="D34" t="s">
-        <v>23</v>
-      </c>
-      <c r="E34" t="s">
-        <v>110</v>
       </c>
       <c r="F34" t="s">
         <v>32</v>
@@ -1513,16 +1519,16 @@
         <v>2006</v>
       </c>
       <c r="B35" t="s">
+        <v>114</v>
+      </c>
+      <c r="C35" t="s">
+        <v>115</v>
+      </c>
+      <c r="D35" t="s">
+        <v>108</v>
+      </c>
+      <c r="E35" t="s">
         <v>113</v>
-      </c>
-      <c r="C35" t="s">
-        <v>114</v>
-      </c>
-      <c r="D35" t="s">
-        <v>107</v>
-      </c>
-      <c r="E35" t="s">
-        <v>112</v>
       </c>
       <c r="F35" t="s">
         <v>32</v>
@@ -1533,16 +1539,16 @@
         <v>2008</v>
       </c>
       <c r="B36" t="s">
+        <v>117</v>
+      </c>
+      <c r="C36" t="s">
+        <v>118</v>
+      </c>
+      <c r="D36" t="s">
+        <v>108</v>
+      </c>
+      <c r="E36" t="s">
         <v>116</v>
-      </c>
-      <c r="C36" t="s">
-        <v>117</v>
-      </c>
-      <c r="D36" t="s">
-        <v>107</v>
-      </c>
-      <c r="E36" t="s">
-        <v>115</v>
       </c>
       <c r="F36" t="s">
         <v>32</v>
@@ -1553,16 +1559,16 @@
         <v>2009</v>
       </c>
       <c r="B37" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C37" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D37" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E37" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F37" t="s">
         <v>32</v>
@@ -1573,16 +1579,16 @@
         <v>2010</v>
       </c>
       <c r="B38" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C38" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D38" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E38" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F38" t="s">
         <v>32</v>
@@ -1593,16 +1599,16 @@
         <v>2011</v>
       </c>
       <c r="B39" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C39" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D39" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E39" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F39" t="s">
         <v>32</v>
@@ -1613,16 +1619,16 @@
         <v>2009</v>
       </c>
       <c r="B40" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C40" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D40" t="s">
         <v>23</v>
       </c>
       <c r="E40" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F40" t="s">
         <v>32</v>
@@ -1633,16 +1639,16 @@
         <v>2008</v>
       </c>
       <c r="B41" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C41" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D41" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E41" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F41" t="s">
         <v>31</v>
@@ -1653,16 +1659,16 @@
         <v>2010</v>
       </c>
       <c r="B42" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C42" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D42" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E42" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F42" t="s">
         <v>31</v>
@@ -1673,16 +1679,16 @@
         <v>2011</v>
       </c>
       <c r="B43" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C43" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E43" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F43" t="s">
         <v>31</v>
@@ -1690,60 +1696,60 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C44" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F44" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C45" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F45" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C46" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F46" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C47" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E47" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F47" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C48" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F48" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/tokyo-nova/checklist.xlsx
+++ b/tokyo-nova/checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/tokyo-nova/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{333E344E-8EA8-9840-88D6-E0A15DD0F349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB07AD3A-E1EC-484B-ADFB-EEA8C993400E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{22EAF693-7861-A34E-A783-34EF7D154F64}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="149">
   <si>
     <t>year</t>
   </si>
@@ -859,7 +859,7 @@
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1106,6 +1106,9 @@
       <c r="E12" t="s">
         <v>52</v>
       </c>
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">

--- a/tokyo-nova/checklist.xlsx
+++ b/tokyo-nova/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/tokyo-nova/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB07AD3A-E1EC-484B-ADFB-EEA8C993400E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB1D9E1-A3C4-8448-ACCD-2BDC272D7EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{22EAF693-7861-A34E-A783-34EF7D154F64}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="162">
   <si>
     <t>year</t>
   </si>
@@ -449,37 +449,76 @@
     <t>counterglow_replay.jpg</t>
   </si>
   <si>
-    <t>トーキョーN◎VA The Detonation スーパー・シナリオ・サポート Vol. 1</t>
-  </si>
-  <si>
-    <t>トーキョーN◎VA The Detonation スーパー・シナリオ・サポート Vol. 2</t>
-  </si>
-  <si>
-    <t>トーキョーN◎VA The Detonation スーパー・シナリオ・サポート Vol. 3</t>
-  </si>
-  <si>
-    <t>トーキョーN◎VA The Detonation スーパー・シナリオ・サポート Vol. 4</t>
-  </si>
-  <si>
-    <t>トーキョーN◎VA The Detonation スーパー・シナリオ・サポート Vol. 5</t>
-  </si>
-  <si>
     <t>sssdet4.jpg</t>
   </si>
   <si>
-    <t>Tokyo Nova The Detonation Super Scenario Support Vol. 1</t>
-  </si>
-  <si>
-    <t>Tokyo Nova The Detonation Super Scenario Support Vol. 2</t>
-  </si>
-  <si>
-    <t>Tokyo Nova The Detonation Super Scenario Support Vol. 3</t>
-  </si>
-  <si>
-    <t>Tokyo Nova The Detonation Super Scenario Support Vol. 4</t>
-  </si>
-  <si>
-    <t>Tokyo Nova The Detonation Super Scenario Support Vol. 5</t>
+    <t>Tokyo Nova The Detonation Super Scenario Support Vol. 2: World of Darkness</t>
+  </si>
+  <si>
+    <t>トーキョーN◎VA The Detonation スーパー・シナリオ・サポート Vol. 2 暗黒の世界</t>
+  </si>
+  <si>
+    <t>sssdet2.jpg</t>
+  </si>
+  <si>
+    <t>トーキョーN◎VA The Detonation スーパー・シナリオ・サポート Vol. 3 仮面舞踏会</t>
+  </si>
+  <si>
+    <t>Tokyo Nova The Detonation Super Scenario Support Vol. 3: Behind the Mask</t>
+  </si>
+  <si>
+    <t>sssdet3.jpg</t>
+  </si>
+  <si>
+    <t>Tokyo Nova The Detonation Super Scenario Support Vol. 1: Crystal Wall</t>
+  </si>
+  <si>
+    <t>sssdet1.jpg</t>
+  </si>
+  <si>
+    <t>sssdet1a.jpg</t>
+  </si>
+  <si>
+    <t>トーキョーN◎VA The Detonation スーパー・シナリオ・サポート Vol. 1 フロントライン</t>
+  </si>
+  <si>
+    <t>sssdet2a.jpg</t>
+  </si>
+  <si>
+    <t>トーキョーN◎VA The Detonation スーパー・シナリオ・サポート Vol. 3 フロントライン</t>
+  </si>
+  <si>
+    <t>トーキョーN◎VA The Detonation スーパー・シナリオ・サポート Vol. 1 この声がとどくまで</t>
+  </si>
+  <si>
+    <t>Tokyo Nova The Detonation Super Scenario Support Vol. 3: Calling You</t>
+  </si>
+  <si>
+    <t>sssdet3a.jpg</t>
+  </si>
+  <si>
+    <t>Tokyo Nova The Detonation Super Scenario Support Vol. 2: Flaming Fish</t>
+  </si>
+  <si>
+    <t>トーキョーN◎VA The Detonation スーパー・シナリオ・サポート Vol. 2 魂こがして</t>
+  </si>
+  <si>
+    <t>Tokyo Nova The Detonation Super Scenario Support Vol. 1: Froneline</t>
+  </si>
+  <si>
+    <t>トーキョーN◎VA The Detonation スーパー・シナリオ・サポート Vol. 4 人間以上</t>
+  </si>
+  <si>
+    <t>Tokyo Nova The Detonation Super Scenario Support Vol. 4: Manplus</t>
+  </si>
+  <si>
+    <t>トーキョーN◎VA The Detonation スーパー・シナリオ・サポート Vol. 5 夕日の沈む朝</t>
+  </si>
+  <si>
+    <t>Tokyo Nova The Detonation Super Scenario Support Vol. 5: The Sun Against the Sun</t>
+  </si>
+  <si>
+    <t>sssdet5.jpg</t>
   </si>
 </sst>
 </file>
@@ -856,10 +895,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4679E55C-30BE-044D-B3AF-8434FCFD3724}">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44:D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1698,60 +1737,162 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>2003</v>
+      </c>
       <c r="B44" t="s">
+        <v>148</v>
+      </c>
+      <c r="C44" t="s">
+        <v>156</v>
+      </c>
+      <c r="D44" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44" t="s">
+        <v>147</v>
+      </c>
+      <c r="F44" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>2004</v>
+      </c>
+      <c r="B45" t="s">
+        <v>155</v>
+      </c>
+      <c r="C45" t="s">
+        <v>154</v>
+      </c>
+      <c r="D45" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" t="s">
+        <v>149</v>
+      </c>
+      <c r="F45" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>2004</v>
+      </c>
+      <c r="B46" t="s">
+        <v>150</v>
+      </c>
+      <c r="C46" t="s">
+        <v>152</v>
+      </c>
+      <c r="D46" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" t="s">
+        <v>153</v>
+      </c>
+      <c r="F46" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>2005</v>
+      </c>
+      <c r="B47" t="s">
+        <v>151</v>
+      </c>
+      <c r="C47" t="s">
+        <v>145</v>
+      </c>
+      <c r="D47" t="s">
+        <v>23</v>
+      </c>
+      <c r="E47" t="s">
+        <v>146</v>
+      </c>
+      <c r="F47" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>2005</v>
+      </c>
+      <c r="B48" t="s">
+        <v>140</v>
+      </c>
+      <c r="C48" t="s">
+        <v>139</v>
+      </c>
+      <c r="D48" t="s">
+        <v>23</v>
+      </c>
+      <c r="E48" t="s">
+        <v>141</v>
+      </c>
+      <c r="F48" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>2005</v>
+      </c>
+      <c r="B49" t="s">
+        <v>142</v>
+      </c>
+      <c r="C49" t="s">
+        <v>143</v>
+      </c>
+      <c r="D49" t="s">
+        <v>23</v>
+      </c>
+      <c r="E49" t="s">
+        <v>144</v>
+      </c>
+      <c r="F49" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>2005</v>
+      </c>
+      <c r="B50" t="s">
+        <v>157</v>
+      </c>
+      <c r="C50" t="s">
+        <v>158</v>
+      </c>
+      <c r="D50" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50" t="s">
         <v>138</v>
       </c>
-      <c r="C44" t="s">
-        <v>144</v>
-      </c>
-      <c r="F44" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
-        <v>139</v>
-      </c>
-      <c r="C45" t="s">
-        <v>145</v>
-      </c>
-      <c r="F45" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
-        <v>140</v>
-      </c>
-      <c r="C46" t="s">
-        <v>146</v>
-      </c>
-      <c r="F46" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
-        <v>141</v>
-      </c>
-      <c r="C47" t="s">
-        <v>147</v>
-      </c>
-      <c r="E47" t="s">
-        <v>143</v>
-      </c>
-      <c r="F47" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
-        <v>142</v>
-      </c>
-      <c r="C48" t="s">
-        <v>148</v>
-      </c>
-      <c r="F48" t="s">
+      <c r="F50" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>2004</v>
+      </c>
+      <c r="B51" t="s">
+        <v>159</v>
+      </c>
+      <c r="C51" t="s">
+        <v>160</v>
+      </c>
+      <c r="D51" t="s">
+        <v>23</v>
+      </c>
+      <c r="E51" t="s">
+        <v>161</v>
+      </c>
+      <c r="F51" t="s">
         <v>53</v>
       </c>
     </row>

--- a/tokyo-nova/checklist.xlsx
+++ b/tokyo-nova/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/tokyo-nova/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB1D9E1-A3C4-8448-ACCD-2BDC272D7EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2C0DDB-A2DB-B547-A4B7-D2171238915C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{22EAF693-7861-A34E-A783-34EF7D154F64}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="165">
   <si>
     <t>year</t>
   </si>
@@ -518,7 +518,16 @@
     <t>Tokyo Nova The Detonation Super Scenario Support Vol. 5: The Sun Against the Sun</t>
   </si>
   <si>
-    <t>sssdet5.jpg</t>
+    <t>トーキョーN◎VA The Detonation スーパー・シナリオ・サポート Vol. 4 地獄のハイウェイ</t>
+  </si>
+  <si>
+    <t>Tokyo Nova The Detonation Super Scenario Support Vol. 4: Damnation Alley</t>
+  </si>
+  <si>
+    <t>sssdet4a.jpg</t>
+  </si>
+  <si>
+    <t>sssdet5a.jpg</t>
   </si>
 </sst>
 </file>
@@ -895,10 +904,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4679E55C-30BE-044D-B3AF-8434FCFD3724}">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44:D51"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1798,19 +1807,19 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B47" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="C47" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="D47" t="s">
         <v>23</v>
       </c>
       <c r="E47" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="F47" t="s">
         <v>53</v>
@@ -1818,19 +1827,19 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B48" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="C48" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="D48" t="s">
         <v>23</v>
       </c>
       <c r="E48" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="F48" t="s">
         <v>53</v>
@@ -1841,16 +1850,16 @@
         <v>2005</v>
       </c>
       <c r="B49" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C49" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D49" t="s">
         <v>23</v>
       </c>
       <c r="E49" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F49" t="s">
         <v>53</v>
@@ -1861,16 +1870,16 @@
         <v>2005</v>
       </c>
       <c r="B50" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="C50" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="D50" t="s">
         <v>23</v>
       </c>
       <c r="E50" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F50" t="s">
         <v>53</v>
@@ -1878,21 +1887,41 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B51" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="C51" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="D51" t="s">
         <v>23</v>
       </c>
       <c r="E51" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="F51" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>2005</v>
+      </c>
+      <c r="B52" t="s">
+        <v>157</v>
+      </c>
+      <c r="C52" t="s">
+        <v>158</v>
+      </c>
+      <c r="D52" t="s">
+        <v>23</v>
+      </c>
+      <c r="E52" t="s">
+        <v>138</v>
+      </c>
+      <c r="F52" t="s">
         <v>53</v>
       </c>
     </row>

--- a/tokyo-nova/checklist.xlsx
+++ b/tokyo-nova/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/tokyo-nova/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2C0DDB-A2DB-B547-A4B7-D2171238915C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D13854-79D2-1349-AAA2-72DAD3B930D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{22EAF693-7861-A34E-A783-34EF7D154F64}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="242">
   <si>
     <t>year</t>
   </si>
@@ -528,6 +528,237 @@
   </si>
   <si>
     <t>sssdet5a.jpg</t>
+  </si>
+  <si>
+    <t>トーキョーN◎VA THE AXLERATION</t>
+  </si>
+  <si>
+    <t>Tokyo Nova The Axleration</t>
+  </si>
+  <si>
+    <t>tokyo_nova_axleration.jpg</t>
+  </si>
+  <si>
+    <t>ジ・アザーサイド</t>
+  </si>
+  <si>
+    <t>The Other Side</t>
+  </si>
+  <si>
+    <t>Kadokawa</t>
+  </si>
+  <si>
+    <t>the_other_side.jpg</t>
+  </si>
+  <si>
+    <t>クロス・ザ・ライン</t>
+  </si>
+  <si>
+    <t>Cross the Line</t>
+  </si>
+  <si>
+    <t>cross_the_line.jpg</t>
+  </si>
+  <si>
+    <t>クローム・メモリーズ</t>
+  </si>
+  <si>
+    <t>Chrome Memories</t>
+  </si>
+  <si>
+    <t>F.E.A.R.</t>
+  </si>
+  <si>
+    <t>chrome_memories.jpg</t>
+  </si>
+  <si>
+    <t>ビハインド・ザ・ダーク</t>
+  </si>
+  <si>
+    <t>Behind the Dark</t>
+  </si>
+  <si>
+    <t>behind_the_dark.jpg</t>
+  </si>
+  <si>
+    <t>ヘヴン・ダウンビロウ</t>
+  </si>
+  <si>
+    <t>Heaven Down Below</t>
+  </si>
+  <si>
+    <t>heaven_down_below.jpg</t>
+  </si>
+  <si>
+    <t>オルタナティヴサイト</t>
+  </si>
+  <si>
+    <t>Alternative Sight</t>
+  </si>
+  <si>
+    <t>alternative_sight.jpg</t>
+  </si>
+  <si>
+    <t>スキルディクショナリ</t>
+  </si>
+  <si>
+    <t>Skill Dictionary</t>
+  </si>
+  <si>
+    <t>skill_dictionary.jpg</t>
+  </si>
+  <si>
+    <t>カラミティボックス</t>
+  </si>
+  <si>
+    <t>Calamity Box</t>
+  </si>
+  <si>
+    <t>calamity_box.jpg</t>
+  </si>
+  <si>
+    <t>ファントムレディ</t>
+  </si>
+  <si>
+    <t>Phantom Lady</t>
+  </si>
+  <si>
+    <t>phantom_lady.jpg</t>
+  </si>
+  <si>
+    <t>エンジェル・オブ・デス</t>
+  </si>
+  <si>
+    <t>Angel of Death</t>
+  </si>
+  <si>
+    <t>angel_of_death.jpg</t>
+  </si>
+  <si>
+    <t>さらば、青き光</t>
+  </si>
+  <si>
+    <t>Farewell, Blue Light</t>
+  </si>
+  <si>
+    <t>farewell_blue_light.jpg</t>
+  </si>
+  <si>
+    <t>Super Scenario Support Vol.1 Night Moves</t>
+  </si>
+  <si>
+    <t>Super Scenario Support Vol.2 Heaven with the Devil</t>
+  </si>
+  <si>
+    <t>スーパー・シナリオ・サポート Vol.1 ナイト・ムーヴズ</t>
+  </si>
+  <si>
+    <t>スーパー・シナリオ・サポート Vol.2 悪魔のいる天国</t>
+  </si>
+  <si>
+    <t>スーパー・シナリオ・サポート Vol.3 アウト・オブ・シャドウ</t>
+  </si>
+  <si>
+    <t>Super Scenario Support Vol.3 Out of Shadow</t>
+  </si>
+  <si>
+    <t>スーパー・シナリオ・サポート Vol.4 プラチナムレイダー</t>
+  </si>
+  <si>
+    <t>Super Scenario Support Vol.4 Platinum Raider</t>
+  </si>
+  <si>
+    <t>スーパー・シナリオ・サポート Vol.5 フール・フォー・ザ・シティ</t>
+  </si>
+  <si>
+    <t>Super Scenario Support Vol.5 Fool for the City</t>
+  </si>
+  <si>
+    <t>Super Scenario Support Vol.6 Case of Murder</t>
+  </si>
+  <si>
+    <t>スーパー・シナリオ・サポート Vol.6 ケース・オブ・マーダー</t>
+  </si>
+  <si>
+    <t>スーパー・シナリオ・サポート Vol.7 鋼鉄の嵐</t>
+  </si>
+  <si>
+    <t>Super Scenario Support Vol.7 Steel Storm</t>
+  </si>
+  <si>
+    <t>スーパー・シナリオ・サポート Vol.8 一撃必殺</t>
+  </si>
+  <si>
+    <t>Super Scenario Support Vol.8 One-shot Special</t>
+  </si>
+  <si>
+    <t>スーパー・シナリオ・サポート Vol.9 神は天にあり、世はすべて事もなし</t>
+  </si>
+  <si>
+    <t>Super Scenario Support Vol.9 God is in heaven and the world is nothing</t>
+  </si>
+  <si>
+    <t>スーパー・シナリオ・サポート Vol.10 アージェント・メジャーズ</t>
+  </si>
+  <si>
+    <t>Super Scenario Support Vol.10 Argent Majors</t>
+  </si>
+  <si>
+    <t>スーパー・シナリオ・サポート Vol.11 デモンスレイヤー</t>
+  </si>
+  <si>
+    <t>Super Scenario Support Vol.11 Demon Slayer</t>
+  </si>
+  <si>
+    <t>スーパー・シナリオ・サポート Vol.12 遙か遠くより</t>
+  </si>
+  <si>
+    <t>Super Scenario Support Vol.12 Far away</t>
+  </si>
+  <si>
+    <t>sssax01.jpg</t>
+  </si>
+  <si>
+    <t>sssax02.jpg</t>
+  </si>
+  <si>
+    <t>sssax03.jpg</t>
+  </si>
+  <si>
+    <t>sssax04.jpg</t>
+  </si>
+  <si>
+    <t>sssax05.jpg</t>
+  </si>
+  <si>
+    <t>sssax06.jpg</t>
+  </si>
+  <si>
+    <t>sssax07.jpg</t>
+  </si>
+  <si>
+    <t>sssax08.jpg</t>
+  </si>
+  <si>
+    <t>sssax09.jpg</t>
+  </si>
+  <si>
+    <t>sssax10.jpg</t>
+  </si>
+  <si>
+    <t>sssax11.jpg</t>
+  </si>
+  <si>
+    <t>sssax12.jpg</t>
+  </si>
+  <si>
+    <t>トーキョーN◎VA THE AXLERATION スーパー・シナリオ・サポート Vol.13 立ち止まるな夜明けまで</t>
+  </si>
+  <si>
+    <t>Tokyo N ◎ VA THE AXLERATION Super Scenario Support Vol.13 Don't stop until dawn</t>
+  </si>
+  <si>
+    <t>sssax13.jpg</t>
   </si>
 </sst>
 </file>
@@ -904,10 +1135,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4679E55C-30BE-044D-B3AF-8434FCFD3724}">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1925,9 +2156,509 @@
         <v>53</v>
       </c>
     </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>2013</v>
+      </c>
+      <c r="B53" t="s">
+        <v>165</v>
+      </c>
+      <c r="C53" t="s">
+        <v>166</v>
+      </c>
+      <c r="D53" t="s">
+        <v>108</v>
+      </c>
+      <c r="E53" t="s">
+        <v>167</v>
+      </c>
+      <c r="F53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>2013</v>
+      </c>
+      <c r="B54" t="s">
+        <v>168</v>
+      </c>
+      <c r="C54" t="s">
+        <v>169</v>
+      </c>
+      <c r="D54" t="s">
+        <v>170</v>
+      </c>
+      <c r="E54" t="s">
+        <v>171</v>
+      </c>
+      <c r="F54" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>2014</v>
+      </c>
+      <c r="B55" t="s">
+        <v>172</v>
+      </c>
+      <c r="C55" t="s">
+        <v>173</v>
+      </c>
+      <c r="D55" t="s">
+        <v>170</v>
+      </c>
+      <c r="E55" t="s">
+        <v>174</v>
+      </c>
+      <c r="F55" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>2014</v>
+      </c>
+      <c r="B56" t="s">
+        <v>175</v>
+      </c>
+      <c r="C56" t="s">
+        <v>176</v>
+      </c>
+      <c r="D56" t="s">
+        <v>177</v>
+      </c>
+      <c r="E56" t="s">
+        <v>178</v>
+      </c>
+      <c r="F56" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>2014</v>
+      </c>
+      <c r="B57" t="s">
+        <v>191</v>
+      </c>
+      <c r="C57" t="s">
+        <v>192</v>
+      </c>
+      <c r="D57" t="s">
+        <v>170</v>
+      </c>
+      <c r="E57" t="s">
+        <v>193</v>
+      </c>
+      <c r="F57" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>2014</v>
+      </c>
+      <c r="B58" t="s">
+        <v>194</v>
+      </c>
+      <c r="C58" t="s">
+        <v>195</v>
+      </c>
+      <c r="D58" t="s">
+        <v>170</v>
+      </c>
+      <c r="E58" t="s">
+        <v>196</v>
+      </c>
+      <c r="F58" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>2015</v>
+      </c>
+      <c r="B59" t="s">
+        <v>179</v>
+      </c>
+      <c r="C59" t="s">
+        <v>180</v>
+      </c>
+      <c r="D59" t="s">
+        <v>170</v>
+      </c>
+      <c r="E59" t="s">
+        <v>181</v>
+      </c>
+      <c r="F59" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>2015</v>
+      </c>
+      <c r="B60" t="s">
+        <v>197</v>
+      </c>
+      <c r="C60" t="s">
+        <v>198</v>
+      </c>
+      <c r="D60" t="s">
+        <v>170</v>
+      </c>
+      <c r="E60" t="s">
+        <v>199</v>
+      </c>
+      <c r="F60" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>2016</v>
+      </c>
+      <c r="B61" t="s">
+        <v>182</v>
+      </c>
+      <c r="C61" t="s">
+        <v>183</v>
+      </c>
+      <c r="D61" t="s">
+        <v>170</v>
+      </c>
+      <c r="E61" t="s">
+        <v>184</v>
+      </c>
+      <c r="F61" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>2017</v>
+      </c>
+      <c r="B62" t="s">
+        <v>185</v>
+      </c>
+      <c r="C62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D62" t="s">
+        <v>177</v>
+      </c>
+      <c r="E62" t="s">
+        <v>187</v>
+      </c>
+      <c r="F62" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>2019</v>
+      </c>
+      <c r="B63" t="s">
+        <v>188</v>
+      </c>
+      <c r="C63" t="s">
+        <v>189</v>
+      </c>
+      <c r="D63" t="s">
+        <v>170</v>
+      </c>
+      <c r="E63" t="s">
+        <v>190</v>
+      </c>
+      <c r="F63" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>2019</v>
+      </c>
+      <c r="B64" t="s">
+        <v>200</v>
+      </c>
+      <c r="C64" t="s">
+        <v>201</v>
+      </c>
+      <c r="D64" t="s">
+        <v>177</v>
+      </c>
+      <c r="E64" t="s">
+        <v>202</v>
+      </c>
+      <c r="F64" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>2015</v>
+      </c>
+      <c r="B65" t="s">
+        <v>205</v>
+      </c>
+      <c r="C65" t="s">
+        <v>203</v>
+      </c>
+      <c r="D65" t="s">
+        <v>177</v>
+      </c>
+      <c r="E65" t="s">
+        <v>227</v>
+      </c>
+      <c r="F65" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>2015</v>
+      </c>
+      <c r="B66" t="s">
+        <v>206</v>
+      </c>
+      <c r="C66" t="s">
+        <v>204</v>
+      </c>
+      <c r="D66" t="s">
+        <v>177</v>
+      </c>
+      <c r="E66" t="s">
+        <v>228</v>
+      </c>
+      <c r="F66" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>2015</v>
+      </c>
+      <c r="B67" t="s">
+        <v>207</v>
+      </c>
+      <c r="C67" t="s">
+        <v>208</v>
+      </c>
+      <c r="D67" t="s">
+        <v>177</v>
+      </c>
+      <c r="E67" t="s">
+        <v>229</v>
+      </c>
+      <c r="F67" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>2016</v>
+      </c>
+      <c r="B68" t="s">
+        <v>209</v>
+      </c>
+      <c r="C68" t="s">
+        <v>210</v>
+      </c>
+      <c r="D68" t="s">
+        <v>177</v>
+      </c>
+      <c r="E68" t="s">
+        <v>230</v>
+      </c>
+      <c r="F68" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>2016</v>
+      </c>
+      <c r="B69" t="s">
+        <v>211</v>
+      </c>
+      <c r="C69" t="s">
+        <v>212</v>
+      </c>
+      <c r="D69" t="s">
+        <v>177</v>
+      </c>
+      <c r="E69" t="s">
+        <v>231</v>
+      </c>
+      <c r="F69" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>2016</v>
+      </c>
+      <c r="B70" t="s">
+        <v>214</v>
+      </c>
+      <c r="C70" t="s">
+        <v>213</v>
+      </c>
+      <c r="D70" t="s">
+        <v>177</v>
+      </c>
+      <c r="E70" t="s">
+        <v>232</v>
+      </c>
+      <c r="F70" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>2016</v>
+      </c>
+      <c r="B71" t="s">
+        <v>215</v>
+      </c>
+      <c r="C71" t="s">
+        <v>216</v>
+      </c>
+      <c r="D71" t="s">
+        <v>177</v>
+      </c>
+      <c r="E71" t="s">
+        <v>233</v>
+      </c>
+      <c r="F71" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>2017</v>
+      </c>
+      <c r="B72" t="s">
+        <v>217</v>
+      </c>
+      <c r="C72" t="s">
+        <v>218</v>
+      </c>
+      <c r="D72" t="s">
+        <v>177</v>
+      </c>
+      <c r="E72" t="s">
+        <v>234</v>
+      </c>
+      <c r="F72" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>2017</v>
+      </c>
+      <c r="B73" t="s">
+        <v>219</v>
+      </c>
+      <c r="C73" t="s">
+        <v>220</v>
+      </c>
+      <c r="D73" t="s">
+        <v>177</v>
+      </c>
+      <c r="E73" t="s">
+        <v>235</v>
+      </c>
+      <c r="F73" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>2017</v>
+      </c>
+      <c r="B74" t="s">
+        <v>221</v>
+      </c>
+      <c r="C74" t="s">
+        <v>222</v>
+      </c>
+      <c r="D74" t="s">
+        <v>177</v>
+      </c>
+      <c r="E74" t="s">
+        <v>236</v>
+      </c>
+      <c r="F74" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>2018</v>
+      </c>
+      <c r="B75" t="s">
+        <v>223</v>
+      </c>
+      <c r="C75" t="s">
+        <v>224</v>
+      </c>
+      <c r="D75" t="s">
+        <v>177</v>
+      </c>
+      <c r="E75" t="s">
+        <v>237</v>
+      </c>
+      <c r="F75" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>2018</v>
+      </c>
+      <c r="B76" t="s">
+        <v>225</v>
+      </c>
+      <c r="C76" t="s">
+        <v>226</v>
+      </c>
+      <c r="D76" t="s">
+        <v>177</v>
+      </c>
+      <c r="E76" t="s">
+        <v>238</v>
+      </c>
+      <c r="F76" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>2018</v>
+      </c>
+      <c r="B77" t="s">
+        <v>239</v>
+      </c>
+      <c r="C77" t="s">
+        <v>240</v>
+      </c>
+      <c r="D77" t="s">
+        <v>177</v>
+      </c>
+      <c r="E77" t="s">
+        <v>241</v>
+      </c>
+      <c r="F77" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F14">
-    <sortCondition ref="A2:A14"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A53:F64">
+    <sortCondition ref="A53:A64"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
